--- a/LIBOR.xlsx
+++ b/LIBOR.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Schell\Dropbox\Uni\UNI-Daten\Master\Masterarbeit\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A996EA71-26C7-4395-8A4D-038A59B37C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB81701F-6E9A-45F0-8711-74A5B1FE86D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A3F9B8BD-9A21-4848-A1AA-D8305F6BDB28}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{A3F9B8BD-9A21-4848-A1AA-D8305F6BDB28}"/>
   </bookViews>
   <sheets>
     <sheet name="2009-2050" sheetId="1" r:id="rId1"/>
-    <sheet name="1987-2050" sheetId="2" r:id="rId2"/>
-    <sheet name="Sources" sheetId="3" r:id="rId3"/>
+    <sheet name="2009-2050 Crisis" sheetId="4" r:id="rId2"/>
+    <sheet name="1987-2050" sheetId="2" r:id="rId3"/>
+    <sheet name="Sources" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>LIBOR Index</t>
   </si>
@@ -47,6 +48,9 @@
   </si>
   <si>
     <t>https://www.moneycafe.com/3-month-libor/</t>
+  </si>
+  <si>
+    <t>Libor index dezimal</t>
   </si>
 </sst>
 </file>
@@ -110,6 +114,1114 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'1987-2050'!$A$2:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1987-2050'!$C$2:$C$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.2500000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.199999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.7500000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.5000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.5E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.2499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.2499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.2499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.5E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.4999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.2499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9368-4955-9A51-3B9836833257}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="903010688"/>
+        <c:axId val="875527184"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="903010688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="875527184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="5"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="875527184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1400"/>
+                  <a:t>LIBOR index</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="6.3700231059630776E-3"/>
+              <c:y val="0.41061263621293398"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="903010688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>330573</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1119</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>112058</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D767ED04-3B52-AA2A-D91C-B8160DB71A18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -411,8 +1523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14A4968A-F7F1-43A8-B1B6-7D961023278D}">
   <dimension ref="A1:A43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,254 +1539,212 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <f>'1987-2050'!B25/100</f>
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f>'1987-2050'!B26/100</f>
         <v>0.01</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f>'1987-2050'!B27/100</f>
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f>'1987-2050'!B28/100</f>
         <v>0.01</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f>'1987-2050'!B29/100</f>
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f>'1987-2050'!B30/100</f>
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f>'1987-2050'!B31/100</f>
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f>'1987-2050'!B32/100</f>
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f>'1987-2050'!B33/100</f>
         <v>0.01</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f>'1987-2050'!B34/100</f>
         <v>2.2499999999999999E-2</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f>'1987-2050'!B35/100</f>
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f>'1987-2050'!B36/100</f>
         <v>0.01</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f>'1987-2050'!B37/100</f>
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f>'1987-2050'!B38/100</f>
-        <v>0.02</v>
+        <v>9.5999999999999992E-3</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f>'1987-2050'!B39/100</f>
-        <v>5.2499999999999998E-2</v>
+        <v>9.5999999999999992E-3</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f>'1987-2050'!B40/100</f>
-        <v>3.6000000000000004E-2</v>
+        <v>9.5999999999999992E-3</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f>'1987-2050'!B41/100</f>
-        <v>3.6000000000000004E-2</v>
+        <v>9.5999999999999992E-3</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f>'1987-2050'!B42/100</f>
-        <v>3.6000000000000004E-2</v>
+        <v>9.5999999999999992E-3</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f>'1987-2050'!B43/100</f>
-        <v>3.6000000000000004E-2</v>
+        <v>9.5999999999999992E-3</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f>'1987-2050'!B44/100</f>
-        <v>3.6000000000000004E-2</v>
+        <v>9.5999999999999992E-3</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f>'1987-2050'!B45/100</f>
-        <v>3.6000000000000004E-2</v>
+        <v>9.5999999999999992E-3</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f>'1987-2050'!B46/100</f>
-        <v>3.6000000000000004E-2</v>
+        <v>9.5999999999999992E-3</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f>'1987-2050'!B47/100</f>
-        <v>3.6000000000000004E-2</v>
+        <v>9.5999999999999992E-3</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f>'1987-2050'!B48/100</f>
-        <v>3.6000000000000004E-2</v>
+        <v>9.5999999999999992E-3</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f>'1987-2050'!B49/100</f>
-        <v>3.6000000000000004E-2</v>
+        <v>9.5999999999999992E-3</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f>'1987-2050'!B50/100</f>
-        <v>3.6000000000000004E-2</v>
+        <v>9.5999999999999992E-3</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f>'1987-2050'!B51/100</f>
-        <v>3.6000000000000004E-2</v>
+        <v>9.5999999999999992E-3</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f>'1987-2050'!B52/100</f>
-        <v>3.6000000000000004E-2</v>
+        <v>9.5999999999999992E-3</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f>'1987-2050'!B53/100</f>
-        <v>3.6000000000000004E-2</v>
+        <v>9.5999999999999992E-3</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f>'1987-2050'!B54/100</f>
-        <v>3.6000000000000004E-2</v>
+        <v>9.5999999999999992E-3</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f>'1987-2050'!B55/100</f>
-        <v>3.6000000000000004E-2</v>
+        <v>9.5999999999999992E-3</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f>'1987-2050'!B56/100</f>
-        <v>3.6000000000000004E-2</v>
+        <v>9.5999999999999992E-3</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f>'1987-2050'!B57/100</f>
-        <v>3.6000000000000004E-2</v>
+        <v>9.5999999999999992E-3</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f>'1987-2050'!B58/100</f>
-        <v>3.6000000000000004E-2</v>
+        <v>9.5999999999999992E-3</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f>'1987-2050'!B59/100</f>
-        <v>3.6000000000000004E-2</v>
+        <v>9.5999999999999992E-3</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f>'1987-2050'!B60/100</f>
-        <v>3.6000000000000004E-2</v>
+        <v>9.5999999999999992E-3</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f>'1987-2050'!B61/100</f>
-        <v>3.6000000000000004E-2</v>
+        <v>9.5999999999999992E-3</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f>'1987-2050'!B62/100</f>
-        <v>3.6000000000000004E-2</v>
+        <v>9.5999999999999992E-3</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
-        <f>'1987-2050'!B63/100</f>
-        <v>3.6000000000000004E-2</v>
+        <v>9.5999999999999992E-3</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
-        <f>'1987-2050'!B64/100</f>
-        <v>3.6000000000000004E-2</v>
+        <v>9.5999999999999992E-3</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
-        <f>'1987-2050'!B65/100</f>
-        <v>3.6000000000000004E-2</v>
+        <v>9.5999999999999992E-3</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43">
-        <f>'1987-2050'!B66/100</f>
-        <v>3.6000000000000004E-2</v>
+        <v>9.5999999999999992E-3</v>
       </c>
     </row>
   </sheetData>
@@ -683,550 +1753,1192 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2345F9B6-EB0A-4ADD-8881-DC01713B29AB}">
+  <dimension ref="A1:B43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>'1987-2050'!B25/100</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="B2">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>'1987-2050'!B26/100</f>
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>'1987-2050'!B27/100</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="B4">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>'1987-2050'!B28/100</f>
+        <v>0.01</v>
+      </c>
+      <c r="B5">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>'1987-2050'!B29/100</f>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="B6">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f>'1987-2050'!B30/100</f>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="B7">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f>'1987-2050'!B31/100</f>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="B8">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f>'1987-2050'!B32/100</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="B9">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f>'1987-2050'!B33/100</f>
+        <v>0.01</v>
+      </c>
+      <c r="B10">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>'1987-2050'!B34/100</f>
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="B11">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>'1987-2050'!B35/100</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="B12">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>'1987-2050'!B36/100</f>
+        <v>0.01</v>
+      </c>
+      <c r="B13">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f>'1987-2050'!B37/100</f>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="B14">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f>'1987-2050'!B38/100</f>
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="B15">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f>'1987-2050'!B39/100</f>
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="B16">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f>'1987-2050'!B40/100</f>
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="B17">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f>'1987-2050'!B41/100</f>
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="B18">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f>'1987-2050'!B42/100</f>
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="B19">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0.06</v>
+      </c>
+      <c r="B20">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0.09</v>
+      </c>
+      <c r="B21">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0.12</v>
+      </c>
+      <c r="B22">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0.125</v>
+      </c>
+      <c r="B23">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0.13</v>
+      </c>
+      <c r="B24">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0.13</v>
+      </c>
+      <c r="B25">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0.11</v>
+      </c>
+      <c r="B26">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0.1</v>
+      </c>
+      <c r="B27">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="B28">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="B29">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0.05</v>
+      </c>
+      <c r="B30">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f>'1987-2050'!B54/100</f>
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="B31">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f>'1987-2050'!B55/100</f>
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="B32">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f>'1987-2050'!B56/100</f>
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="B33">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f>'1987-2050'!B57/100</f>
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="B34">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f>'1987-2050'!B58/100</f>
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="B35">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f>'1987-2050'!B59/100</f>
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="B36">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f>'1987-2050'!B60/100</f>
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="B37">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f>'1987-2050'!B61/100</f>
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="B38">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f>'1987-2050'!B62/100</f>
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="B39">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f>'1987-2050'!B63/100</f>
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="B40">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f>'1987-2050'!B64/100</f>
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="B41">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f>'1987-2050'!B65/100</f>
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="B42">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f>'1987-2050'!B66/100</f>
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="B43">
+        <v>2050</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373CD723-AE68-4155-AF6B-6D396191C29B}">
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B66" sqref="B25:B66"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1986</v>
       </c>
       <c r="B2">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <f>B2/100</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1987</v>
       </c>
       <c r="B3">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <f t="shared" ref="C3:C24" si="0">B3/100</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1988</v>
       </c>
       <c r="B4">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1989</v>
       </c>
       <c r="B5">
         <v>8.25</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>8.2500000000000004E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1990</v>
       </c>
       <c r="B6">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>8.199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1991</v>
       </c>
       <c r="B7">
         <v>6.75</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>6.7500000000000004E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1992</v>
       </c>
       <c r="B8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1993</v>
       </c>
       <c r="B9">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>3.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1994</v>
       </c>
       <c r="B10">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1995</v>
       </c>
       <c r="B11">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1996</v>
       </c>
       <c r="B12">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1997</v>
       </c>
       <c r="B13">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1998</v>
       </c>
       <c r="B14">
         <v>5.25</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>5.2499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1999</v>
       </c>
       <c r="B15">
         <v>5.25</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>5.2499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2000</v>
       </c>
       <c r="B16">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2001</v>
       </c>
       <c r="B17">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2002</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2003</v>
       </c>
       <c r="B19">
         <v>1.25</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2004</v>
       </c>
       <c r="B20">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2005</v>
       </c>
       <c r="B21">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>3.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2006</v>
       </c>
       <c r="B22">
         <v>5.25</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>5.2499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2007</v>
       </c>
       <c r="B23">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2008</v>
       </c>
       <c r="B24">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2009</v>
       </c>
       <c r="B25">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2010</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2011</v>
       </c>
       <c r="B27">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>7.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2012</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2013</v>
       </c>
       <c r="B29">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2014</v>
       </c>
       <c r="B30">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2015</v>
       </c>
       <c r="B31">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2016</v>
       </c>
       <c r="B32">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2017</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2018</v>
       </c>
       <c r="B34">
         <v>2.25</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>2.2499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2019</v>
       </c>
       <c r="B35">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2020</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2021</v>
       </c>
       <c r="B37">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2022</v>
       </c>
       <c r="B38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.96</v>
+      </c>
+      <c r="C38">
+        <f>B38/100</f>
+        <v>9.5999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2023</v>
       </c>
       <c r="B39">
-        <v>5.25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.96</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ref="C39:C66" si="1">B39/100</f>
+        <v>9.5999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2024</v>
       </c>
       <c r="B40">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.96</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="1"/>
+        <v>9.5999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2025</v>
       </c>
       <c r="B41">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.96</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="1"/>
+        <v>9.5999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2026</v>
       </c>
       <c r="B42">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.96</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="1"/>
+        <v>9.5999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2027</v>
       </c>
       <c r="B43">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.96</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="1"/>
+        <v>9.5999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2028</v>
       </c>
       <c r="B44">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.96</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="1"/>
+        <v>9.5999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2029</v>
       </c>
       <c r="B45">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.96</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="1"/>
+        <v>9.5999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2030</v>
       </c>
       <c r="B46">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.96</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="1"/>
+        <v>9.5999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2031</v>
       </c>
       <c r="B47">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.96</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="1"/>
+        <v>9.5999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2032</v>
       </c>
       <c r="B48">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.96</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="1"/>
+        <v>9.5999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2033</v>
       </c>
       <c r="B49">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.96</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="1"/>
+        <v>9.5999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2034</v>
       </c>
       <c r="B50">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.96</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="1"/>
+        <v>9.5999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2035</v>
       </c>
       <c r="B51">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.96</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="1"/>
+        <v>9.5999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2036</v>
       </c>
       <c r="B52">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.96</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="1"/>
+        <v>9.5999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2037</v>
       </c>
       <c r="B53">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.96</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="1"/>
+        <v>9.5999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2038</v>
       </c>
       <c r="B54">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.96</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="1"/>
+        <v>9.5999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2039</v>
       </c>
       <c r="B55">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.96</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="1"/>
+        <v>9.5999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2040</v>
       </c>
       <c r="B56">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.96</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="1"/>
+        <v>9.5999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2041</v>
       </c>
       <c r="B57">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.96</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="1"/>
+        <v>9.5999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2042</v>
       </c>
       <c r="B58">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.96</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="1"/>
+        <v>9.5999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2043</v>
       </c>
       <c r="B59">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.96</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="1"/>
+        <v>9.5999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2044</v>
       </c>
       <c r="B60">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.96</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="1"/>
+        <v>9.5999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2045</v>
       </c>
       <c r="B61">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.96</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="1"/>
+        <v>9.5999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2046</v>
       </c>
       <c r="B62">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.96</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="1"/>
+        <v>9.5999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2047</v>
       </c>
       <c r="B63">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.96</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="1"/>
+        <v>9.5999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2048</v>
       </c>
       <c r="B64">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.96</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="1"/>
+        <v>9.5999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2049</v>
       </c>
       <c r="B65">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.96</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="1"/>
+        <v>9.5999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2050</v>
       </c>
       <c r="B66">
-        <v>3.6</v>
+        <v>0.96</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="1"/>
+        <v>9.5999999999999992E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F304E9E-8DDD-4F6A-8AA3-2A07906659AD}">
   <dimension ref="B2:B4"/>
   <sheetViews>

--- a/LIBOR.xlsx
+++ b/LIBOR.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Schell\Dropbox\Uni\UNI-Daten\Master\Masterarbeit\Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tschell\Documents\GitHub\ABM_electricity_sector_Germany\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB81701F-6E9A-45F0-8711-74A5B1FE86D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{A3F9B8BD-9A21-4848-A1AA-D8305F6BDB28}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="2009-2050" sheetId="1" r:id="rId1"/>
@@ -56,7 +55,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -100,8 +99,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -119,7 +118,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -585,6 +584,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -592,7 +592,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1520,229 +1519,229 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14A4968A-F7F1-43A8-B1B6-7D961023278D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A43"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>0.01</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>9.5999999999999992E-3</v>
       </c>
@@ -1753,24 +1752,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2345F9B6-EB0A-4ADD-8881-DC01713B29AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:B30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="A20:B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>'1987-2050'!B25/100</f>
         <v>1.4999999999999999E-2</v>
@@ -1779,7 +1778,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <f>'1987-2050'!B26/100</f>
         <v>0.01</v>
@@ -1788,7 +1787,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <f>'1987-2050'!B27/100</f>
         <v>7.4999999999999997E-3</v>
@@ -1797,7 +1796,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <f>'1987-2050'!B28/100</f>
         <v>0.01</v>
@@ -1806,7 +1805,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <f>'1987-2050'!B29/100</f>
         <v>2.5000000000000001E-3</v>
@@ -1815,7 +1814,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <f>'1987-2050'!B30/100</f>
         <v>2.5000000000000001E-3</v>
@@ -1824,7 +1823,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <f>'1987-2050'!B31/100</f>
         <v>2.5000000000000001E-3</v>
@@ -1833,7 +1832,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
         <f>'1987-2050'!B32/100</f>
         <v>5.0000000000000001E-3</v>
@@ -1842,7 +1841,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
         <f>'1987-2050'!B33/100</f>
         <v>0.01</v>
@@ -1851,7 +1850,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
         <f>'1987-2050'!B34/100</f>
         <v>2.2499999999999999E-2</v>
@@ -1860,7 +1859,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
         <f>'1987-2050'!B35/100</f>
         <v>2.5000000000000001E-2</v>
@@ -1869,7 +1868,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
         <f>'1987-2050'!B36/100</f>
         <v>0.01</v>
@@ -1878,7 +1877,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14">
         <f>'1987-2050'!B37/100</f>
         <v>2.5000000000000001E-3</v>
@@ -1887,7 +1886,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15">
         <f>'1987-2050'!B38/100</f>
         <v>9.5999999999999992E-3</v>
@@ -1896,7 +1895,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16">
         <f>'1987-2050'!B39/100</f>
         <v>9.5999999999999992E-3</v>
@@ -1905,7 +1904,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17">
         <f>'1987-2050'!B40/100</f>
         <v>9.5999999999999992E-3</v>
@@ -1914,7 +1913,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18">
         <f>'1987-2050'!B41/100</f>
         <v>9.5999999999999992E-3</v>
@@ -1923,7 +1922,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19">
         <f>'1987-2050'!B42/100</f>
         <v>9.5999999999999992E-3</v>
@@ -1932,7 +1931,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>0.06</v>
       </c>
@@ -1940,7 +1939,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>0.09</v>
       </c>
@@ -1948,7 +1947,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>0.12</v>
       </c>
@@ -1956,7 +1955,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>0.125</v>
       </c>
@@ -1964,7 +1963,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0.13</v>
       </c>
@@ -1972,7 +1971,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0.13</v>
       </c>
@@ -1980,7 +1979,7 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>0.11</v>
       </c>
@@ -1988,7 +1987,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>0.1</v>
       </c>
@@ -1996,7 +1995,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>9.5000000000000001E-2</v>
       </c>
@@ -2004,7 +2003,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -2012,7 +2011,7 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>0.05</v>
       </c>
@@ -2020,7 +2019,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31">
         <f>'1987-2050'!B54/100</f>
         <v>9.5999999999999992E-3</v>
@@ -2029,7 +2028,7 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32">
         <f>'1987-2050'!B55/100</f>
         <v>9.5999999999999992E-3</v>
@@ -2038,7 +2037,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33">
         <f>'1987-2050'!B56/100</f>
         <v>9.5999999999999992E-3</v>
@@ -2047,7 +2046,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34">
         <f>'1987-2050'!B57/100</f>
         <v>9.5999999999999992E-3</v>
@@ -2056,7 +2055,7 @@
         <v>2041</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35">
         <f>'1987-2050'!B58/100</f>
         <v>9.5999999999999992E-3</v>
@@ -2065,7 +2064,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36">
         <f>'1987-2050'!B59/100</f>
         <v>9.5999999999999992E-3</v>
@@ -2074,7 +2073,7 @@
         <v>2043</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37">
         <f>'1987-2050'!B60/100</f>
         <v>9.5999999999999992E-3</v>
@@ -2083,7 +2082,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38">
         <f>'1987-2050'!B61/100</f>
         <v>9.5999999999999992E-3</v>
@@ -2092,7 +2091,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39">
         <f>'1987-2050'!B62/100</f>
         <v>9.5999999999999992E-3</v>
@@ -2101,7 +2100,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40">
         <f>'1987-2050'!B63/100</f>
         <v>9.5999999999999992E-3</v>
@@ -2110,7 +2109,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41">
         <f>'1987-2050'!B64/100</f>
         <v>9.5999999999999992E-3</v>
@@ -2119,7 +2118,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42">
         <f>'1987-2050'!B65/100</f>
         <v>9.5999999999999992E-3</v>
@@ -2128,7 +2127,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43">
         <f>'1987-2050'!B66/100</f>
         <v>9.5999999999999992E-3</v>
@@ -2143,21 +2142,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373CD723-AE68-4155-AF6B-6D396191C29B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2165,7 +2164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1986</v>
       </c>
@@ -2177,7 +2176,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1987</v>
       </c>
@@ -2189,7 +2188,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1988</v>
       </c>
@@ -2201,7 +2200,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1989</v>
       </c>
@@ -2213,7 +2212,7 @@
         <v>8.2500000000000004E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1990</v>
       </c>
@@ -2225,7 +2224,7 @@
         <v>8.199999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1991</v>
       </c>
@@ -2237,7 +2236,7 @@
         <v>6.7500000000000004E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1992</v>
       </c>
@@ -2249,7 +2248,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1993</v>
       </c>
@@ -2261,7 +2260,7 @@
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1994</v>
       </c>
@@ -2273,7 +2272,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1995</v>
       </c>
@@ -2285,7 +2284,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1996</v>
       </c>
@@ -2297,7 +2296,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1997</v>
       </c>
@@ -2309,7 +2308,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1998</v>
       </c>
@@ -2321,7 +2320,7 @@
         <v>5.2499999999999998E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1999</v>
       </c>
@@ -2333,7 +2332,7 @@
         <v>5.2499999999999998E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2000</v>
       </c>
@@ -2345,7 +2344,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2001</v>
       </c>
@@ -2357,7 +2356,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2002</v>
       </c>
@@ -2369,7 +2368,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2003</v>
       </c>
@@ -2381,7 +2380,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2004</v>
       </c>
@@ -2393,7 +2392,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2005</v>
       </c>
@@ -2405,7 +2404,7 @@
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2006</v>
       </c>
@@ -2417,7 +2416,7 @@
         <v>5.2499999999999998E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2007</v>
       </c>
@@ -2429,7 +2428,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2008</v>
       </c>
@@ -2441,7 +2440,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2009</v>
       </c>
@@ -2452,7 +2451,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2010</v>
       </c>
@@ -2463,7 +2462,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2011</v>
       </c>
@@ -2474,7 +2473,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2012</v>
       </c>
@@ -2485,7 +2484,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2013</v>
       </c>
@@ -2496,7 +2495,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2014</v>
       </c>
@@ -2507,7 +2506,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2015</v>
       </c>
@@ -2518,7 +2517,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>2016</v>
       </c>
@@ -2529,7 +2528,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>2017</v>
       </c>
@@ -2540,7 +2539,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>2018</v>
       </c>
@@ -2551,7 +2550,7 @@
         <v>2.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>2019</v>
       </c>
@@ -2562,7 +2561,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>2020</v>
       </c>
@@ -2573,7 +2572,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>2021</v>
       </c>
@@ -2584,7 +2583,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>2022</v>
       </c>
@@ -2596,7 +2595,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>2023</v>
       </c>
@@ -2608,7 +2607,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>2024</v>
       </c>
@@ -2620,7 +2619,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>2025</v>
       </c>
@@ -2632,7 +2631,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>2026</v>
       </c>
@@ -2644,7 +2643,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>2027</v>
       </c>
@@ -2656,7 +2655,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>2028</v>
       </c>
@@ -2668,7 +2667,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>2029</v>
       </c>
@@ -2680,7 +2679,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>2030</v>
       </c>
@@ -2692,7 +2691,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>2031</v>
       </c>
@@ -2704,7 +2703,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>2032</v>
       </c>
@@ -2716,7 +2715,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>2033</v>
       </c>
@@ -2728,7 +2727,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>2034</v>
       </c>
@@ -2740,7 +2739,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>2035</v>
       </c>
@@ -2752,7 +2751,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>2036</v>
       </c>
@@ -2764,7 +2763,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>2037</v>
       </c>
@@ -2776,7 +2775,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>2038</v>
       </c>
@@ -2788,7 +2787,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>2039</v>
       </c>
@@ -2800,7 +2799,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>2040</v>
       </c>
@@ -2812,7 +2811,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>2041</v>
       </c>
@@ -2824,7 +2823,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>2042</v>
       </c>
@@ -2836,7 +2835,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>2043</v>
       </c>
@@ -2848,7 +2847,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>2044</v>
       </c>
@@ -2860,7 +2859,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>2045</v>
       </c>
@@ -2872,7 +2871,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>2046</v>
       </c>
@@ -2884,7 +2883,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>2047</v>
       </c>
@@ -2896,7 +2895,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>2048</v>
       </c>
@@ -2908,7 +2907,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>2049</v>
       </c>
@@ -2920,7 +2919,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>2050</v>
       </c>
@@ -2939,31 +2938,31 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F304E9E-8DDD-4F6A-8AA3-2A07906659AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="66.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{2B859D9C-0C9A-469A-8D5C-BEAF99734134}"/>
+    <hyperlink ref="B4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LIBOR.xlsx
+++ b/LIBOR.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2009-2050" sheetId="1" r:id="rId1"/>
@@ -392,7 +392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
@@ -652,10 +652,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A43"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -663,234 +663,342 @@
     <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1.18E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B2">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>5.1999999999999998E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>5.1000000000000004E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>6.8999999999999999E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4.0999999999999995E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>3.3E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>4.8999999999999998E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1.0500000000000001E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1.47E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2.4900000000000002E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2.3199999999999998E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B12">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>6.8999999999999999E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B13">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B14">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15">
         <f>AVERAGE($A$2:$A$14)</f>
         <v>9.5000000000000015E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16">
         <f t="shared" ref="A16:A19" si="0">AVERAGE($A$2:$A$14)</f>
         <v>9.5000000000000015E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B16">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>9.5000000000000015E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>9.5000000000000015E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B18">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>9.5000000000000015E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B20">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B21">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B22">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>0.125</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B24">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B25">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B26">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B27">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>9.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B28">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B29">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B30">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31">
         <f t="shared" ref="A31:A43" si="1">AVERAGE($A$2:$A$14)</f>
         <v>9.5000000000000015E-3</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B31">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32">
         <f t="shared" si="1"/>
         <v>9.5000000000000015E-3</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B32">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33">
         <f t="shared" si="1"/>
         <v>9.5000000000000015E-3</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B33">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34">
         <f t="shared" si="1"/>
         <v>9.5000000000000015E-3</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B34">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35">
         <f t="shared" si="1"/>
         <v>9.5000000000000015E-3</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B35">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36">
         <f t="shared" si="1"/>
         <v>9.5000000000000015E-3</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B36">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37">
         <f t="shared" si="1"/>
         <v>9.5000000000000015E-3</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B37">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38">
         <f t="shared" si="1"/>
         <v>9.5000000000000015E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39">
         <f t="shared" si="1"/>
         <v>9.5000000000000015E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40">
         <f t="shared" si="1"/>
         <v>9.5000000000000015E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41">
         <f t="shared" si="1"/>
         <v>9.5000000000000015E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42">
         <f t="shared" si="1"/>
         <v>9.5000000000000015E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43">
         <f t="shared" si="1"/>
         <v>9.5000000000000015E-3</v>
